--- a/biology/Écologie/Gran_Sabana_(formation_végétale)/Gran_Sabana_(formation_végétale).xlsx
+++ b/biology/Écologie/Gran_Sabana_(formation_végétale)/Gran_Sabana_(formation_végétale).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gran_Sabana_(formation_v%C3%A9g%C3%A9tale)</t>
+          <t>Gran_Sabana_(formation_végétale)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Gran Sabana, terme espagnol qui signifie littéralement en français « grande savane », est une formation végétale s'étendant sur une superficie de 10 820 km2, principalement dans le Sud-Est du Venezuela et débordant dans l'Ouest du Guyana où elle est appelée savane du Rupununi et dans l'extrême Nord du Brésil. Administrativement, elle fait partie de la municipalité vénézuélienne de Gran Sabana de l'État de Bolívar, des município brésiliens d'Uiramutã, de Pacaraima et d'Amajari de l'État de Roraima ainsi que de la région guyanienne de Cuyuni-Mazaruni.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gran_Sabana_(formation_v%C3%A9g%C3%A9tale)</t>
+          <t>Gran_Sabana_(formation_végétale)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(es) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en espagnol intitulé « La Gran Sabana » (voir la liste des auteurs).</t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gran_Sabana_(formation_v%C3%A9g%C3%A9tale)</t>
+          <t>Gran_Sabana_(formation_végétale)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
